--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nodal-Acvr1c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nodal-Acvr1c.xlsx
@@ -531,22 +531,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7934986666666667</v>
+        <v>1.591135333333333</v>
       </c>
       <c r="H2">
-        <v>2.380496</v>
+        <v>4.773406</v>
       </c>
       <c r="I2">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="J2">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02136071960711111</v>
+        <v>0.04283283279488888</v>
       </c>
       <c r="R2">
-        <v>0.192246476464</v>
+        <v>0.3854954951539999</v>
       </c>
       <c r="S2">
-        <v>0.2980902158625083</v>
+        <v>0.4707829234247397</v>
       </c>
       <c r="T2">
-        <v>0.2980902158625084</v>
+        <v>0.4707829234247397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>3.078262</v>
       </c>
       <c r="I3">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="J3">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>0.248597360858</v>
       </c>
       <c r="S3">
-        <v>0.38546579538943</v>
+        <v>0.3035973020998604</v>
       </c>
       <c r="T3">
-        <v>0.3854657953894301</v>
+        <v>0.3035973020998604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.65586</v>
+        <v>0.730693</v>
       </c>
       <c r="H4">
-        <v>1.96758</v>
+        <v>2.192079</v>
       </c>
       <c r="I4">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="J4">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.01765553258</v>
+        <v>0.01967001199566666</v>
       </c>
       <c r="R4">
-        <v>0.15889979322</v>
+        <v>0.177030107961</v>
       </c>
       <c r="S4">
-        <v>0.2463840926121086</v>
+        <v>0.2161964349979826</v>
       </c>
       <c r="T4">
-        <v>0.2463840926121087</v>
+        <v>0.2161964349979826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1864953333333333</v>
+        <v>0.03184866666666667</v>
       </c>
       <c r="H5">
-        <v>0.5594859999999999</v>
+        <v>0.09554600000000001</v>
       </c>
       <c r="I5">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="J5">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.005020392208222222</v>
+        <v>0.0008573554904444445</v>
       </c>
       <c r="R5">
-        <v>0.04518352987399999</v>
+        <v>0.007716199414</v>
       </c>
       <c r="S5">
-        <v>0.0700598961359529</v>
+        <v>0.009423339477417213</v>
       </c>
       <c r="T5">
-        <v>0.07005989613595291</v>
+        <v>0.009423339477417213</v>
       </c>
     </row>
   </sheetData>
